--- a/data/timeslices_solar_wind_cf.xlsx
+++ b/data/timeslices_solar_wind_cf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63E47E-A8A9-44C2-BBD9-F098238081DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F14D3-2C19-4B80-B803-0B42BC9E0B86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,8 +504,7 @@
       <c r="B4" s="1">
         <v>0.1</v>
       </c>
-      <c r="C4" s="1">
-        <f>B4</f>
+      <c r="C4">
         <v>0.1</v>
       </c>
       <c r="E4">
@@ -530,22 +529,21 @@
       <c r="B5" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C7" si="0">B5</f>
+      <c r="C5">
         <v>0.1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F11" si="1">E5*C5</f>
+        <f t="shared" ref="F5:F11" si="0">E5*C5</f>
         <v>0.1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I11" si="2">H5*C5</f>
+        <f t="shared" ref="I5:I11" si="1">H5*C5</f>
         <v>0</v>
       </c>
     </row>
@@ -556,23 +554,22 @@
       <c r="B6" s="1">
         <v>0.12</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+      <c r="C6">
+        <v>0.15399999999999997</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>0.15399999999999997</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.15399999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -582,22 +579,21 @@
       <c r="B7" s="1">
         <v>0.12</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -608,8 +604,7 @@
       <c r="B8" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C8" s="2">
-        <f>B8-$A$12</f>
+      <c r="C8">
         <v>0.13999999999999996</v>
       </c>
       <c r="D8" s="2"/>
@@ -617,14 +612,14 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13999999999999996</v>
       </c>
     </row>
@@ -635,8 +630,7 @@
       <c r="B9" s="1">
         <v>0.161</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:C11" si="3">B9-$A$12</f>
+      <c r="C9">
         <v>0.12599999999999997</v>
       </c>
       <c r="D9" s="2"/>
@@ -644,14 +638,14 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -662,8 +656,7 @@
       <c r="B10" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="3"/>
+      <c r="C10">
         <v>0.13999999999999996</v>
       </c>
       <c r="D10" s="2"/>
@@ -671,14 +664,14 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13999999999999996</v>
       </c>
     </row>
@@ -689,23 +682,22 @@
       <c r="B11" s="1">
         <v>0.189</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.15399999999999997</v>
+      <c r="C11">
+        <v>0.12</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -720,16 +712,16 @@
       </c>
       <c r="C12" s="2">
         <f>SUM(C4:C11)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <f>SUM(F4:F11)</f>
-        <v>0.44</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I12">
         <f>SUM(I4:I11)</f>
-        <v>0.49999999999999994</v>
+        <v>0.53399999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -755,7 +747,7 @@
       </c>
       <c r="F16">
         <f>E16/F12</f>
-        <v>0.90909090909090917</v>
+        <v>0.84388185654008452</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>13</v>
@@ -779,7 +771,8 @@
         <v>0.44</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <f>E17/F12</f>
+        <v>0.92827004219409293</v>
       </c>
       <c r="J17">
         <v>2017</v>
@@ -792,7 +785,7 @@
       </c>
       <c r="M17">
         <f>K17/$I$12</f>
-        <v>0.28000000000000008</v>
+        <v>0.26217228464419484</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -814,7 +807,7 @@
       </c>
       <c r="M18">
         <f>K18/$I$12</f>
-        <v>0.28560000000000008</v>
+        <v>0.26741573033707872</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -833,7 +826,7 @@
       </c>
       <c r="M19">
         <f>K19/$I$12</f>
-        <v>0.2941680000000001</v>
+        <v>0.27543820224719107</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -844,7 +837,7 @@
         <v>2035</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K19:K20" si="4">K19*(1+(L20-L19))</f>
+        <f t="shared" ref="K20" si="2">K19*(1+(L20-L19))</f>
         <v>0.15443820000000003</v>
       </c>
       <c r="L20">
@@ -852,7 +845,7 @@
       </c>
       <c r="M20">
         <f>K20/$I$12</f>
-        <v>0.30887640000000011</v>
+        <v>0.28921011235955063</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">

--- a/data/timeslices_solar_wind_cf.xlsx
+++ b/data/timeslices_solar_wind_cf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F14D3-2C19-4B80-B803-0B42BC9E0B86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78EFD6-8167-4ADB-A711-1158C57643CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
   <sheets>
     <sheet name="New_COMFR" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>SDW</t>
   </si>
@@ -84,10 +84,13 @@
     <t>Onshore</t>
   </si>
   <si>
-    <t>Offshore</t>
-  </si>
-  <si>
     <t>EFF_TIMES</t>
+  </si>
+  <si>
+    <t>Offshore FX</t>
+  </si>
+  <si>
+    <t>Offshore FL</t>
   </si>
 </sst>
 </file>
@@ -464,11 +467,12 @@
   <dimension ref="A3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
@@ -732,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -743,11 +747,11 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F16">
-        <f>E16/F12</f>
-        <v>0.84388185654008452</v>
+        <f>E16/$F$12</f>
+        <v>0.52742616033755274</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>13</v>
@@ -756,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -765,14 +769,14 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <f>E17/F12</f>
-        <v>0.92827004219409293</v>
+        <f t="shared" ref="F17:F21" si="2">E17/$F$12</f>
+        <v>0.63291139240506333</v>
       </c>
       <c r="J17">
         <v>2017</v>
@@ -792,6 +796,16 @@
       <c r="B18" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0.35</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.73839662447257381</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>15</v>
       </c>
@@ -814,6 +828,13 @@
       <c r="B19" s="1">
         <v>0.17499999999999999</v>
       </c>
+      <c r="E19">
+        <v>0.4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.84388185654008452</v>
+      </c>
       <c r="J19">
         <v>2030</v>
       </c>
@@ -833,11 +854,18 @@
       <c r="B20" s="1">
         <v>0.161</v>
       </c>
+      <c r="E20">
+        <v>0.45</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.949367088607595</v>
+      </c>
       <c r="J20">
         <v>2035</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20" si="2">K19*(1+(L20-L19))</f>
+        <f t="shared" ref="K20" si="3">K19*(1+(L20-L19))</f>
         <v>0.15443820000000003</v>
       </c>
       <c r="L20">
@@ -851,6 +879,13 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>0.17499999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.0548523206751055</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">

--- a/data/timeslices_solar_wind_cf.xlsx
+++ b/data/timeslices_solar_wind_cf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78EFD6-8167-4ADB-A711-1158C57643CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CFC31-B12D-4A2E-B048-569750596FA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
   <sheets>
     <sheet name="New_COMFR" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,21 +509,21 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
         <f>E4*C4</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
         <f>H4*C4</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -534,14 +534,14 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F11" si="0">E5*C5</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -559,21 +559,21 @@
         <v>0.12</v>
       </c>
       <c r="C6">
-        <v>0.15399999999999997</v>
+        <v>0.04</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.15399999999999997</v>
+        <v>0.04</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.15399999999999997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -584,14 +584,14 @@
         <v>0.12</v>
       </c>
       <c r="C7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C8">
-        <v>0.13999999999999996</v>
+        <v>0.06</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8">
@@ -624,7 +624,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.13999999999999996</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>0.161</v>
       </c>
       <c r="C9">
-        <v>0.12599999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9">
@@ -661,7 +661,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C10">
-        <v>0.13999999999999996</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10">
@@ -676,7 +676,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0.13999999999999996</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>0.189</v>
       </c>
       <c r="C11">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11">
@@ -716,16 +716,16 @@
       </c>
       <c r="C12" s="2">
         <f>SUM(C4:C11)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <f>SUM(F4:F11)</f>
-        <v>0.47399999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
         <f>SUM(I4:I11)</f>
-        <v>0.53399999999999992</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
       </c>
       <c r="F16">
         <f>E16/$F$12</f>
-        <v>0.52742616033755274</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>13</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="F17">
         <f t="shared" ref="F17:F21" si="2">E17/$F$12</f>
-        <v>0.63291139240506333</v>
+        <v>0.6</v>
       </c>
       <c r="J17">
         <v>2017</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="M17">
         <f>K17/$I$12</f>
-        <v>0.26217228464419484</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.73839662447257381</v>
+        <v>0.7</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>15</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="M18">
         <f>K18/$I$12</f>
-        <v>0.26741573033707872</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.84388185654008452</v>
+        <v>0.8</v>
       </c>
       <c r="J19">
         <v>2030</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="M19">
         <f>K19/$I$12</f>
-        <v>0.27543820224719107</v>
+        <v>0.73542000000000007</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.949367088607595</v>
+        <v>0.9</v>
       </c>
       <c r="J20">
         <v>2035</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="M20">
         <f>K20/$I$12</f>
-        <v>0.28921011235955063</v>
+        <v>0.77219100000000007</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>1.0548523206751055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">

--- a/data/timeslices_solar_wind_cf.xlsx
+++ b/data/timeslices_solar_wind_cf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CFC31-B12D-4A2E-B048-569750596FA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AB61-BB98-4D14-97AB-476860EE5436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/timeslices_solar_wind_cf.xlsx
+++ b/data/timeslices_solar_wind_cf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370AB61-BB98-4D14-97AB-476860EE5436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0B16C-FD77-43F4-8258-97A3BADA395F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
+    <workbookView xWindow="36435" yWindow="1755" windowWidth="21600" windowHeight="11325" xr2:uid="{A566AB5E-42BF-4D57-AEBC-9280CA97FF98}"/>
   </bookViews>
   <sheets>
     <sheet name="New_COMFR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>SDW</t>
   </si>
@@ -91,6 +93,9 @@
   </si>
   <si>
     <t>Offshore FL</t>
+  </si>
+  <si>
+    <t>PWS</t>
   </si>
 </sst>
 </file>
@@ -464,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82D3164-A650-4B5B-ACF1-A79955CD405D}">
-  <dimension ref="A3:N22"/>
+  <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M23:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,6 +505,12 @@
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -525,6 +536,16 @@
         <f>H4*C4</f>
         <v>0.06</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>K4*C4</f>
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -550,6 +571,16 @@
         <f t="shared" ref="I5:I11" si="1">H5*C5</f>
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L10" si="2">K5*C5</f>
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -575,6 +606,16 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -600,6 +641,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -626,6 +677,16 @@
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -652,6 +713,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -678,6 +749,16 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -703,6 +784,16 @@
       <c r="I11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L5:L11" si="3">K11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -727,11 +818,13 @@
         <f>SUM(I4:I11)</f>
         <v>0.2</v>
       </c>
+      <c r="L12">
+        <f>SUM(L4:L11)</f>
+        <v>0.39999999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="E15" t="s">
         <v>12</v>
       </c>
@@ -740,9 +833,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>6.9000000000000006E-2</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
@@ -765,9 +856,7 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
@@ -775,7 +864,7 @@
         <v>0.3</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F21" si="2">E17/$F$12</f>
+        <f t="shared" ref="F17:F21" si="4">E17/$F$12</f>
         <v>0.6</v>
       </c>
       <c r="J17">
@@ -793,9 +882,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
@@ -803,7 +890,7 @@
         <v>0.35</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -825,14 +912,12 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>0.17499999999999999</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="E19">
         <v>0.4</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="J19">
@@ -851,21 +936,19 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>0.161</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="E20">
         <v>0.45</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="J20">
         <v>2035</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20" si="3">K19*(1+(L20-L19))</f>
+        <f t="shared" ref="K20" si="5">K19*(1+(L20-L19))</f>
         <v>0.15443820000000003</v>
       </c>
       <c r="L20">
@@ -877,20 +960,66 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>0.17499999999999999</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>0.189</v>
+      <c r="B22" s="1"/>
+      <c r="K22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0.21</v>
+      </c>
+      <c r="L23">
+        <v>0.15</v>
+      </c>
+      <c r="M23">
+        <f>K23/$L$12</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <f>K23*(1+(L24-L23))</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M25" si="6">K24/$L$12</f>
+        <v>0.57750000000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f>K24*(1+(L25-L24))</f>
+        <v>0.19635</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0.49087500000000001</v>
       </c>
     </row>
   </sheetData>
